--- a/11.15test/test_1115.xlsx
+++ b/11.15test/test_1115.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,10 +32,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -47,9 +79,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,21 +101,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,14 +109,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -114,24 +123,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,31 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,7 +185,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,13 +281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,49 +317,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,79 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,17 +379,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,11 +418,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,23 +436,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,20 +470,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,148 +481,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -637,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,10 +981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N209"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P146" sqref="P146"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="R104" sqref="R104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5354,13 +5347,13 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -5372,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
@@ -5390,15 +5383,15 @@
         <v>0</v>
       </c>
       <c r="M100" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -5442,7 +5435,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -5460,10 +5453,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -5504,13 +5497,13 @@
         <v>0</v>
       </c>
       <c r="G103" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="1">
         <v>0</v>
@@ -5522,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5530,13 +5523,13 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B104" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C104" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -5574,13 +5567,13 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
       </c>
       <c r="C105" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -5592,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H105" s="1">
         <v>0</v>
@@ -5610,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5618,7 +5611,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -5636,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H106" s="1">
         <v>0</v>
@@ -5654,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5662,13 +5655,13 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -5680,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107" s="1">
         <v>0</v>
       </c>
       <c r="I107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" s="1">
         <v>0</v>
@@ -5706,13 +5699,13 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
@@ -5724,13 +5717,13 @@
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" s="1">
         <v>0</v>
@@ -5742,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -5750,10 +5743,10 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" s="1">
         <v>5</v>
@@ -5762,19 +5755,19 @@
         <v>0</v>
       </c>
       <c r="E109" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F109" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" s="1">
         <v>0</v>
@@ -5794,7 +5787,7 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -5806,31 +5799,31 @@
         <v>0</v>
       </c>
       <c r="E110" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F110" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G110" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H110" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I110" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J110" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K110" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L110" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M110" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -5838,10 +5831,10 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B111" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C111" s="1">
         <v>5</v>
@@ -5856,13 +5849,13 @@
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H111" s="1">
         <v>1</v>
       </c>
       <c r="I111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" s="1">
         <v>0</v>
@@ -5874,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -5882,7 +5875,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -5900,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H112" s="1">
         <v>0</v>
@@ -5926,10 +5919,10 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B113" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C113" s="1">
         <v>5</v>
@@ -5944,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
@@ -5962,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -5970,7 +5963,7 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B114" s="1">
         <v>0</v>
@@ -5988,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H114" s="1">
         <v>0</v>
@@ -6006,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6014,32 +6007,32 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
       </c>
       <c r="C115" s="1">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
         <v>5</v>
       </c>
-      <c r="D115" s="1">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1">
-        <v>0</v>
-      </c>
       <c r="F115" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G115" s="1">
+        <v>7</v>
+      </c>
+      <c r="H115" s="1">
+        <v>15</v>
+      </c>
+      <c r="I115" s="1">
         <v>4</v>
       </c>
-      <c r="H115" s="1">
-        <v>0</v>
-      </c>
-      <c r="I115" s="1">
-        <v>0</v>
-      </c>
       <c r="J115" s="1">
         <v>0</v>
       </c>
@@ -6050,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6058,13 +6051,13 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B116" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C116" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -6102,13 +6095,13 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
       </c>
       <c r="C117" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -6146,7 +6139,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -6158,13 +6151,13 @@
         <v>0</v>
       </c>
       <c r="E118" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F118" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G118" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
@@ -6182,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6190,43 +6183,43 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B119" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C119" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="1">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="H119" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I119" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J119" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M119" s="1">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6234,10 +6227,10 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B120" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C120" s="1">
         <v>5</v>
@@ -6252,13 +6245,13 @@
         <v>0</v>
       </c>
       <c r="G120" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J120" s="1">
         <v>0</v>
@@ -6270,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6278,10 +6271,10 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C121" s="1">
         <v>5</v>
@@ -6296,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
@@ -6314,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6322,10 +6315,10 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C122" s="1">
         <v>5</v>
@@ -6340,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H122" s="1">
         <v>0</v>
@@ -6358,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6366,13 +6359,13 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
       </c>
       <c r="C123" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -6384,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H123" s="1">
         <v>0</v>
@@ -6402,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6410,31 +6403,31 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
       </c>
       <c r="C124" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F124" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G124" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H124" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I124" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J124" s="1">
         <v>0</v>
@@ -6446,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6454,10 +6447,10 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B125" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1">
         <v>5</v>
@@ -6466,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -6498,10 +6491,10 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B126" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C126" s="1">
         <v>5</v>
@@ -6510,19 +6503,19 @@
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
       </c>
       <c r="G126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I126" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J126" s="1">
         <v>0</v>
@@ -6542,7 +6535,7 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
@@ -6560,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="1">
         <v>0</v>
@@ -6578,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6586,13 +6579,13 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B128" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
@@ -6604,13 +6597,13 @@
         <v>0</v>
       </c>
       <c r="G128" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J128" s="1">
         <v>0</v>
@@ -6622,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6630,7 +6623,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -6648,25 +6641,25 @@
         <v>0</v>
       </c>
       <c r="G129" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H129" s="1">
         <v>0</v>
       </c>
       <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0</v>
+      </c>
+      <c r="M129" s="1">
         <v>3</v>
-      </c>
-      <c r="J129" s="1">
-        <v>0</v>
-      </c>
-      <c r="K129" s="1">
-        <v>0</v>
-      </c>
-      <c r="L129" s="1">
-        <v>0</v>
-      </c>
-      <c r="M129" s="1">
-        <v>0</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6674,10 +6667,10 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B130" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C130" s="1">
         <v>5</v>
@@ -6692,10 +6685,10 @@
         <v>0</v>
       </c>
       <c r="G130" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" s="1">
         <v>0</v>
@@ -6710,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -6718,10 +6711,10 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B131" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C131" s="1">
         <v>5</v>
@@ -6736,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="G131" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H131" s="1">
         <v>0</v>
@@ -6754,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -6768,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
@@ -6780,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H132" s="1">
         <v>0</v>
@@ -6798,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -6806,25 +6799,25 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
       </c>
       <c r="C133" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
       </c>
       <c r="E133" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
       </c>
       <c r="G133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" s="1">
         <v>0</v>
@@ -6842,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -6850,25 +6843,25 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
       </c>
       <c r="C134" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
       </c>
       <c r="E134" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
       </c>
       <c r="G134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" s="1">
         <v>0</v>
@@ -6886,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -6894,10 +6887,10 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B135" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135" s="1">
         <v>5</v>
@@ -6906,19 +6899,19 @@
         <v>0</v>
       </c>
       <c r="E135" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F135" s="1">
         <v>0</v>
       </c>
       <c r="G135" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H135" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I135" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J135" s="1">
         <v>0</v>
@@ -6930,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -6938,16 +6931,16 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
       </c>
       <c r="C136" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D136" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E136" s="1">
         <v>0</v>
@@ -6956,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" s="1">
         <v>0</v>
@@ -6974,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6982,7 +6975,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -7000,10 +6993,10 @@
         <v>0</v>
       </c>
       <c r="G137" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
@@ -7018,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7026,7 +7019,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B138" s="1">
         <v>0</v>
@@ -7044,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H138" s="1">
         <v>0</v>
@@ -7062,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="M138" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7070,7 +7063,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -7082,16 +7075,16 @@
         <v>0</v>
       </c>
       <c r="E139" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
       </c>
       <c r="G139" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H139" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I139" s="1">
         <v>0</v>
@@ -7106,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7114,13 +7107,13 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
       </c>
       <c r="C140" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D140" s="1">
         <v>0</v>
@@ -7132,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H140" s="1">
         <v>0</v>
@@ -7150,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7158,7 +7151,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -7176,10 +7169,10 @@
         <v>0</v>
       </c>
       <c r="G141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
@@ -7202,13 +7195,13 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
       </c>
       <c r="C142" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D142" s="1">
         <v>0</v>
@@ -7220,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H142" s="1">
         <v>0</v>
@@ -7238,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="M142" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7270,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" s="1">
         <v>0</v>
@@ -7290,7 +7283,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B144" s="1">
         <v>1</v>
@@ -7308,13 +7301,13 @@
         <v>0</v>
       </c>
       <c r="G144" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H144" s="1">
         <v>0</v>
       </c>
       <c r="I144" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J144" s="1">
         <v>0</v>
@@ -7326,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="M144" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7334,16 +7327,16 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D145" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E145" s="1">
         <v>0</v>
@@ -7352,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="G145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" s="1">
         <v>0</v>
@@ -7378,10 +7371,10 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B146" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C146" s="1">
         <v>5</v>
@@ -7399,7 +7392,7 @@
         <v>2</v>
       </c>
       <c r="H146" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" s="1">
         <v>0</v>
@@ -7422,10 +7415,10 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B147" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C147" s="1">
         <v>5</v>
@@ -7466,7 +7459,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -7478,16 +7471,16 @@
         <v>0</v>
       </c>
       <c r="E148" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F148" s="1">
         <v>0</v>
       </c>
       <c r="G148" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H148" s="1">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I148" s="1">
         <v>0</v>
@@ -7502,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="M148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7510,28 +7503,28 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B149" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C149" s="1">
+        <v>4</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>106</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1">
         <v>6</v>
       </c>
-      <c r="D149" s="1">
-        <v>0</v>
-      </c>
-      <c r="E149" s="1">
-        <v>0</v>
-      </c>
-      <c r="F149" s="1">
-        <v>0</v>
-      </c>
-      <c r="G149" s="1">
-        <v>1</v>
-      </c>
       <c r="H149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" s="1">
         <v>0</v>
@@ -7546,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="M149" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7554,10 +7547,10 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" s="1">
         <v>5</v>
@@ -7572,10 +7565,10 @@
         <v>0</v>
       </c>
       <c r="G150" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" s="1">
         <v>0</v>
@@ -7598,7 +7591,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -7610,13 +7603,13 @@
         <v>0</v>
       </c>
       <c r="E151" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F151" s="1">
         <v>0</v>
       </c>
       <c r="G151" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H151" s="1">
         <v>0</v>
@@ -7634,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="M151" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7642,31 +7635,31 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B152" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D152" s="1">
         <v>0</v>
       </c>
       <c r="E152" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F152" s="1">
         <v>0</v>
       </c>
       <c r="G152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" s="1">
         <v>0</v>
       </c>
       <c r="I152" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" s="1">
         <v>0</v>
@@ -7678,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="M152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7686,10 +7679,10 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" s="1">
         <v>5</v>
@@ -7730,13 +7723,13 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -7748,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" s="1">
         <v>0</v>
@@ -7766,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="M154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -7774,13 +7767,13 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B155" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C155" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -7795,7 +7788,7 @@
         <v>2</v>
       </c>
       <c r="H155" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" s="1">
         <v>0</v>
@@ -7810,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -7818,10 +7811,10 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B156" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C156" s="1">
         <v>5</v>
@@ -7830,19 +7823,19 @@
         <v>0</v>
       </c>
       <c r="E156" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F156" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G156" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" s="1">
         <v>0</v>
@@ -7854,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="M156" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -7862,7 +7855,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B157" s="1">
         <v>0</v>
@@ -7880,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H157" s="1">
         <v>0</v>
@@ -7898,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="M157" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -7906,28 +7899,28 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B158" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C158" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D158" s="1">
         <v>0</v>
       </c>
       <c r="E158" s="1">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F158" s="1">
         <v>0</v>
       </c>
       <c r="G158" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H158" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" s="1">
         <v>0</v>
@@ -7942,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="M158" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -7950,10 +7943,10 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B159" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" s="1">
         <v>5</v>
@@ -7994,7 +7987,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B160" s="1">
         <v>0</v>
@@ -8006,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F160" s="1">
         <v>0</v>
@@ -8038,43 +8031,43 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
       </c>
       <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>3</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1">
+        <v>0</v>
+      </c>
+      <c r="L161" s="1">
+        <v>0</v>
+      </c>
+      <c r="M161" s="1">
         <v>2</v>
-      </c>
-      <c r="F161" s="1">
-        <v>0</v>
-      </c>
-      <c r="G161" s="1">
-        <v>0</v>
-      </c>
-      <c r="H161" s="1">
-        <v>0</v>
-      </c>
-      <c r="I161" s="1">
-        <v>0</v>
-      </c>
-      <c r="J161" s="1">
-        <v>0</v>
-      </c>
-      <c r="K161" s="1">
-        <v>0</v>
-      </c>
-      <c r="L161" s="1">
-        <v>0</v>
-      </c>
-      <c r="M161" s="1">
-        <v>0</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8082,13 +8075,13 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B162" s="1">
         <v>0</v>
       </c>
       <c r="C162" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
@@ -8100,10 +8093,10 @@
         <v>0</v>
       </c>
       <c r="G162" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" s="1">
         <v>0</v>
@@ -8118,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="M162" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8126,13 +8119,13 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B163" s="1">
         <v>0</v>
       </c>
       <c r="C163" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D163" s="1">
         <v>0</v>
@@ -8144,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H163" s="1">
         <v>0</v>
@@ -8162,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="M163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8170,31 +8163,31 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B164" s="1">
         <v>0</v>
       </c>
       <c r="C164" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
       </c>
       <c r="E164" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F164" s="1">
         <v>0</v>
       </c>
       <c r="G164" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164" s="1">
         <v>0</v>
       </c>
       <c r="I164" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" s="1">
         <v>0</v>
@@ -8214,10 +8207,10 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B165" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C165" s="1">
         <v>5</v>
@@ -8226,19 +8219,19 @@
         <v>0</v>
       </c>
       <c r="E165" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F165" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G165" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" s="1">
         <v>0</v>
@@ -8250,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="M165" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8258,7 +8251,7 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B166" s="1">
         <v>0</v>
@@ -8276,10 +8269,10 @@
         <v>0</v>
       </c>
       <c r="G166" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H166" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" s="1">
         <v>0</v>
@@ -8294,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="M166" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8302,7 +8295,7 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B167" s="1">
         <v>0</v>
@@ -8320,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="G167" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" s="1">
         <v>0</v>
@@ -8338,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="M167" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8346,28 +8339,28 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
       </c>
       <c r="C168" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
       </c>
       <c r="E168" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F168" s="1">
         <v>0</v>
       </c>
       <c r="G168" s="1">
+        <v>1</v>
+      </c>
+      <c r="H168" s="1">
         <v>2</v>
-      </c>
-      <c r="H168" s="1">
-        <v>0</v>
       </c>
       <c r="I168" s="1">
         <v>0</v>
@@ -8408,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="G169" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H169" s="1">
         <v>0</v>
@@ -8434,7 +8427,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -8452,13 +8445,13 @@
         <v>0</v>
       </c>
       <c r="G170" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H170" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" s="1">
         <v>0</v>
@@ -8470,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="M170" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8481,10 +8474,10 @@
         <v>11</v>
       </c>
       <c r="B171" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C171" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D171" s="1">
         <v>0</v>
@@ -8496,10 +8489,10 @@
         <v>0</v>
       </c>
       <c r="G171" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" s="1">
         <v>0</v>
@@ -8514,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="M171" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -8522,7 +8515,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -8540,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H172" s="1">
         <v>0</v>
@@ -8566,31 +8559,31 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
       </c>
       <c r="C173" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
       </c>
       <c r="E173" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F173" s="1">
         <v>0</v>
       </c>
       <c r="G173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" s="1">
         <v>0</v>
       </c>
       <c r="I173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" s="1">
         <v>0</v>
@@ -8602,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="M173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -8610,10 +8603,10 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B174" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C174" s="1">
         <v>5</v>
@@ -8622,13 +8615,13 @@
         <v>0</v>
       </c>
       <c r="E174" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F174" s="1">
         <v>0</v>
       </c>
       <c r="G174" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H174" s="1">
         <v>0</v>
@@ -8654,7 +8647,7 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B175" s="1">
         <v>0</v>
@@ -8672,10 +8665,10 @@
         <v>0</v>
       </c>
       <c r="G175" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -8690,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="M175" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -8698,10 +8691,10 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" s="1">
         <v>5</v>
@@ -8710,13 +8703,13 @@
         <v>0</v>
       </c>
       <c r="E176" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F176" s="1">
         <v>0</v>
       </c>
       <c r="G176" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" s="1">
         <v>1</v>
@@ -8742,13 +8735,13 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B177" s="1">
         <v>0</v>
       </c>
       <c r="C177" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
@@ -8760,14 +8753,14 @@
         <v>0</v>
       </c>
       <c r="G177" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" s="1">
+        <v>0</v>
+      </c>
+      <c r="I177" s="1">
         <v>2</v>
       </c>
-      <c r="I177" s="1">
-        <v>0</v>
-      </c>
       <c r="J177" s="1">
         <v>0</v>
       </c>
@@ -8778,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="M177" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -8786,7 +8779,7 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B178" s="1">
         <v>0</v>
@@ -8804,13 +8797,13 @@
         <v>0</v>
       </c>
       <c r="G178" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H178" s="1">
         <v>0</v>
       </c>
       <c r="I178" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" s="1">
         <v>0</v>
@@ -8822,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="M178" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -8830,7 +8823,7 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B179" s="1">
         <v>0</v>
@@ -8874,10 +8867,10 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B180" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C180" s="1">
         <v>5</v>
@@ -8889,10 +8882,10 @@
         <v>0</v>
       </c>
       <c r="F180" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G180" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H180" s="1">
         <v>0</v>
@@ -8910,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="M180" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -8930,31 +8923,31 @@
         <v>0</v>
       </c>
       <c r="E181" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F181" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G181" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H181" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I181" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J181" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K181" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L181" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M181" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -8962,13 +8955,13 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
       </c>
       <c r="C182" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D182" s="1">
         <v>0</v>
@@ -9006,7 +8999,7 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B183" s="1">
         <v>0</v>
@@ -9024,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="G183" s="1">
+        <v>1</v>
+      </c>
+      <c r="H183" s="1">
+        <v>2</v>
+      </c>
+      <c r="I183" s="1">
         <v>3</v>
-      </c>
-      <c r="H183" s="1">
-        <v>0</v>
-      </c>
-      <c r="I183" s="1">
-        <v>0</v>
       </c>
       <c r="J183" s="1">
         <v>0</v>
@@ -9050,7 +9043,7 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B184" s="1">
         <v>0</v>
@@ -9068,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H184" s="1">
         <v>0</v>
@@ -9086,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="M184" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9094,10 +9087,10 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" s="1">
         <v>5</v>
@@ -9106,16 +9099,16 @@
         <v>0</v>
       </c>
       <c r="E185" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F185" s="1">
         <v>0</v>
       </c>
       <c r="G185" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" s="1">
         <v>0</v>
@@ -9130,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="M185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9138,31 +9131,31 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B186" s="1">
         <v>0</v>
       </c>
       <c r="C186" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D186" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F186" s="1">
         <v>0</v>
       </c>
       <c r="G186" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186" s="1">
         <v>0</v>
       </c>
       <c r="I186" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" s="1">
         <v>0</v>
@@ -9174,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="M186" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9182,7 +9175,7 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B187" s="1">
         <v>0</v>
@@ -9197,16 +9190,16 @@
         <v>0</v>
       </c>
       <c r="F187" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H187" s="1">
         <v>0</v>
       </c>
       <c r="I187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" s="1">
         <v>0</v>
@@ -9218,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="M187" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9226,7 +9219,7 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B188" s="1">
         <v>0</v>
@@ -9244,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="G188" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" s="1">
         <v>0</v>
@@ -9270,7 +9263,7 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B189" s="1">
         <v>0</v>
@@ -9282,13 +9275,13 @@
         <v>0</v>
       </c>
       <c r="E189" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F189" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G189" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H189" s="1">
         <v>0</v>
@@ -9306,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="M189" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9314,7 +9307,7 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B190" s="1">
         <v>0</v>
@@ -9326,31 +9319,31 @@
         <v>0</v>
       </c>
       <c r="E190" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F190" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G190" s="1">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="H190" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I190" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J190" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K190" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L190" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M190" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -9358,10 +9351,10 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B191" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C191" s="1">
         <v>5</v>
@@ -9373,16 +9366,16 @@
         <v>0</v>
       </c>
       <c r="F191" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G191" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H191" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191" s="1">
         <v>0</v>
@@ -9402,7 +9395,7 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B192" s="1">
         <v>0</v>
@@ -9420,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="G192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J192" s="1">
         <v>0</v>
@@ -9438,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="M192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -9452,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D193" s="1">
         <v>0</v>
@@ -9490,13 +9483,13 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B194" s="1">
         <v>0</v>
       </c>
       <c r="C194" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D194" s="1">
         <v>0</v>
@@ -9508,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="G194" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" s="1">
         <v>0</v>
@@ -9526,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="M194" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -9534,16 +9527,16 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B195" s="1">
         <v>0</v>
       </c>
       <c r="C195" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D195" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" s="1">
         <v>0</v>
@@ -9552,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H195" s="1">
         <v>0</v>
@@ -9578,7 +9571,7 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B196" s="1">
         <v>0</v>
@@ -9593,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196" s="1">
         <v>0</v>
@@ -9622,13 +9615,13 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B197" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C197" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -9640,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="G197" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H197" s="1">
         <v>0</v>
@@ -9658,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="M197" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -9666,25 +9659,25 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B198" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C198" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D198" s="1">
         <v>0</v>
       </c>
       <c r="E198" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F198" s="1">
         <v>0</v>
       </c>
       <c r="G198" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H198" s="1">
         <v>0</v>
@@ -9702,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="M198" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -9710,7 +9703,7 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B199" s="1">
         <v>0</v>
@@ -9725,10 +9718,10 @@
         <v>0</v>
       </c>
       <c r="F199" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H199" s="1">
         <v>0</v>
@@ -9746,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="M199" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -9754,10 +9747,10 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B200" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C200" s="1">
         <v>5</v>
@@ -9769,16 +9762,16 @@
         <v>0</v>
       </c>
       <c r="F200" s="1">
+        <v>0</v>
+      </c>
+      <c r="G200" s="1">
+        <v>0</v>
+      </c>
+      <c r="H200" s="1">
         <v>3</v>
       </c>
-      <c r="G200" s="1">
-        <v>4</v>
-      </c>
-      <c r="H200" s="1">
-        <v>1</v>
-      </c>
       <c r="I200" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" s="1">
         <v>0</v>
@@ -9793,402 +9786,6 @@
         <v>0</v>
       </c>
       <c r="N200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14">
-      <c r="A201" s="1">
-        <v>17</v>
-      </c>
-      <c r="B201" s="1">
-        <v>0</v>
-      </c>
-      <c r="C201" s="1">
-        <v>5</v>
-      </c>
-      <c r="D201" s="1">
-        <v>0</v>
-      </c>
-      <c r="E201" s="1">
-        <v>0</v>
-      </c>
-      <c r="F201" s="1">
-        <v>0</v>
-      </c>
-      <c r="G201" s="1">
-        <v>0</v>
-      </c>
-      <c r="H201" s="1">
-        <v>0</v>
-      </c>
-      <c r="I201" s="1">
-        <v>0</v>
-      </c>
-      <c r="J201" s="1">
-        <v>0</v>
-      </c>
-      <c r="K201" s="1">
-        <v>0</v>
-      </c>
-      <c r="L201" s="1">
-        <v>0</v>
-      </c>
-      <c r="M201" s="1">
-        <v>0</v>
-      </c>
-      <c r="N201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14">
-      <c r="A202" s="1">
-        <v>16</v>
-      </c>
-      <c r="B202" s="1">
-        <v>0</v>
-      </c>
-      <c r="C202" s="1">
-        <v>6</v>
-      </c>
-      <c r="D202" s="1">
-        <v>0</v>
-      </c>
-      <c r="E202" s="1">
-        <v>0</v>
-      </c>
-      <c r="F202" s="1">
-        <v>0</v>
-      </c>
-      <c r="G202" s="1">
-        <v>2</v>
-      </c>
-      <c r="H202" s="1">
-        <v>0</v>
-      </c>
-      <c r="I202" s="1">
-        <v>0</v>
-      </c>
-      <c r="J202" s="1">
-        <v>0</v>
-      </c>
-      <c r="K202" s="1">
-        <v>0</v>
-      </c>
-      <c r="L202" s="1">
-        <v>0</v>
-      </c>
-      <c r="M202" s="1">
-        <v>2</v>
-      </c>
-      <c r="N202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14">
-      <c r="A203" s="1">
-        <v>16</v>
-      </c>
-      <c r="B203" s="1">
-        <v>0</v>
-      </c>
-      <c r="C203" s="1">
-        <v>6</v>
-      </c>
-      <c r="D203" s="1">
-        <v>0</v>
-      </c>
-      <c r="E203" s="1">
-        <v>0</v>
-      </c>
-      <c r="F203" s="1">
-        <v>0</v>
-      </c>
-      <c r="G203" s="1">
-        <v>2</v>
-      </c>
-      <c r="H203" s="1">
-        <v>0</v>
-      </c>
-      <c r="I203" s="1">
-        <v>0</v>
-      </c>
-      <c r="J203" s="1">
-        <v>0</v>
-      </c>
-      <c r="K203" s="1">
-        <v>0</v>
-      </c>
-      <c r="L203" s="1">
-        <v>0</v>
-      </c>
-      <c r="M203" s="1">
-        <v>2</v>
-      </c>
-      <c r="N203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14">
-      <c r="A204" s="1">
-        <v>16</v>
-      </c>
-      <c r="B204" s="1">
-        <v>0</v>
-      </c>
-      <c r="C204" s="1">
-        <v>5</v>
-      </c>
-      <c r="D204" s="1">
-        <v>0</v>
-      </c>
-      <c r="E204" s="1">
-        <v>0</v>
-      </c>
-      <c r="F204" s="1">
-        <v>0</v>
-      </c>
-      <c r="G204" s="1">
-        <v>5</v>
-      </c>
-      <c r="H204" s="1">
-        <v>0</v>
-      </c>
-      <c r="I204" s="1">
-        <v>0</v>
-      </c>
-      <c r="J204" s="1">
-        <v>0</v>
-      </c>
-      <c r="K204" s="1">
-        <v>0</v>
-      </c>
-      <c r="L204" s="1">
-        <v>0</v>
-      </c>
-      <c r="M204" s="1">
-        <v>0</v>
-      </c>
-      <c r="N204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14">
-      <c r="A205" s="1">
-        <v>15</v>
-      </c>
-      <c r="B205" s="1">
-        <v>0</v>
-      </c>
-      <c r="C205" s="1">
-        <v>5</v>
-      </c>
-      <c r="D205" s="1">
-        <v>0</v>
-      </c>
-      <c r="E205" s="1">
-        <v>0</v>
-      </c>
-      <c r="F205" s="1">
-        <v>0</v>
-      </c>
-      <c r="G205" s="1">
-        <v>0</v>
-      </c>
-      <c r="H205" s="1">
-        <v>0</v>
-      </c>
-      <c r="I205" s="1">
-        <v>0</v>
-      </c>
-      <c r="J205" s="1">
-        <v>0</v>
-      </c>
-      <c r="K205" s="1">
-        <v>0</v>
-      </c>
-      <c r="L205" s="1">
-        <v>0</v>
-      </c>
-      <c r="M205" s="1">
-        <v>0</v>
-      </c>
-      <c r="N205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14">
-      <c r="A206" s="1">
-        <v>12</v>
-      </c>
-      <c r="B206" s="1">
-        <v>3</v>
-      </c>
-      <c r="C206" s="1">
-        <v>6</v>
-      </c>
-      <c r="D206" s="1">
-        <v>0</v>
-      </c>
-      <c r="E206" s="1">
-        <v>0</v>
-      </c>
-      <c r="F206" s="1">
-        <v>0</v>
-      </c>
-      <c r="G206" s="1">
-        <v>3</v>
-      </c>
-      <c r="H206" s="1">
-        <v>0</v>
-      </c>
-      <c r="I206" s="1">
-        <v>0</v>
-      </c>
-      <c r="J206" s="1">
-        <v>0</v>
-      </c>
-      <c r="K206" s="1">
-        <v>0</v>
-      </c>
-      <c r="L206" s="1">
-        <v>0</v>
-      </c>
-      <c r="M206" s="1">
-        <v>3</v>
-      </c>
-      <c r="N206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14">
-      <c r="A207" s="1">
-        <v>12</v>
-      </c>
-      <c r="B207" s="1">
-        <v>3</v>
-      </c>
-      <c r="C207" s="1">
-        <v>6</v>
-      </c>
-      <c r="D207" s="1">
-        <v>0</v>
-      </c>
-      <c r="E207" s="1">
-        <v>0</v>
-      </c>
-      <c r="F207" s="1">
-        <v>0</v>
-      </c>
-      <c r="G207" s="1">
-        <v>3</v>
-      </c>
-      <c r="H207" s="1">
-        <v>0</v>
-      </c>
-      <c r="I207" s="1">
-        <v>0</v>
-      </c>
-      <c r="J207" s="1">
-        <v>0</v>
-      </c>
-      <c r="K207" s="1">
-        <v>0</v>
-      </c>
-      <c r="L207" s="1">
-        <v>0</v>
-      </c>
-      <c r="M207" s="1">
-        <v>3</v>
-      </c>
-      <c r="N207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14">
-      <c r="A208" s="1">
-        <v>17</v>
-      </c>
-      <c r="B208" s="1">
-        <v>0</v>
-      </c>
-      <c r="C208" s="1">
-        <v>5</v>
-      </c>
-      <c r="D208" s="1">
-        <v>0</v>
-      </c>
-      <c r="E208" s="1">
-        <v>0</v>
-      </c>
-      <c r="F208" s="1">
-        <v>0</v>
-      </c>
-      <c r="G208" s="1">
-        <v>6</v>
-      </c>
-      <c r="H208" s="1">
-        <v>0</v>
-      </c>
-      <c r="I208" s="1">
-        <v>0</v>
-      </c>
-      <c r="J208" s="1">
-        <v>0</v>
-      </c>
-      <c r="K208" s="1">
-        <v>0</v>
-      </c>
-      <c r="L208" s="1">
-        <v>0</v>
-      </c>
-      <c r="M208" s="1">
-        <v>2</v>
-      </c>
-      <c r="N208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14">
-      <c r="A209" s="1">
-        <v>18</v>
-      </c>
-      <c r="B209" s="1">
-        <v>0</v>
-      </c>
-      <c r="C209" s="1">
-        <v>5</v>
-      </c>
-      <c r="D209" s="1">
-        <v>0</v>
-      </c>
-      <c r="E209" s="1">
-        <v>0</v>
-      </c>
-      <c r="F209" s="1">
-        <v>0</v>
-      </c>
-      <c r="G209" s="1">
-        <v>0</v>
-      </c>
-      <c r="H209" s="1">
-        <v>3</v>
-      </c>
-      <c r="I209" s="1">
-        <v>0</v>
-      </c>
-      <c r="J209" s="1">
-        <v>0</v>
-      </c>
-      <c r="K209" s="1">
-        <v>0</v>
-      </c>
-      <c r="L209" s="1">
-        <v>0</v>
-      </c>
-      <c r="M209" s="1">
-        <v>0</v>
-      </c>
-      <c r="N209">
         <v>0</v>
       </c>
     </row>
